--- a/export.xlsx
+++ b/export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicholas.silva\Documents\Github\CrawJUD-Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4E1A065-9B20-43D0-9405-EB0F50338964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D01FE91-01E1-4C28-8AF3-8D0688F84629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,9 +245,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -560,494 +559,451 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>61</v>
       </c>
     </row>

--- a/export.xlsx
+++ b/export.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicholas.silva\Documents\Github\CrawJUD-Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicholas.silva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D01FE91-01E1-4C28-8AF3-8D0688F84629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5233BF-FA2E-48C0-ACFB-1710F4F8ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -68,9 +68,6 @@
     <t>PROJUDI - BUSCA PROCESSOS</t>
   </si>
   <si>
-    <t>BUSCADOR</t>
-  </si>
-  <si>
     <t>Robô responsável por fazer busca utilizando nome de partes do processo</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Robô responsável por solicitação de pagamentos</t>
   </si>
   <si>
-    <t>SOLICITACAO</t>
-  </si>
-  <si>
     <t>Robô responsável por complemento de cadastro</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>TJDFT</t>
   </si>
   <si>
-    <t>DIVERSOS</t>
-  </si>
-  <si>
     <t>CALCULO</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>ELAW - ENCERRAMENTOS</t>
   </si>
   <si>
-    <t>ATUALIZAR</t>
-  </si>
-  <si>
     <t>Robô responsável por encerramento de processos</t>
   </si>
   <si>
@@ -210,6 +198,51 @@
   </si>
   <si>
     <t>Robô responsável por extrair pautas do Pje</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>JURIDICO</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>PAUTA</t>
+  </si>
+  <si>
+    <t>PROC_PARTE</t>
+  </si>
+  <si>
+    <t>BUSCA_PAGS</t>
+  </si>
+  <si>
+    <t>SOL_PAGS</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>PROVISAO</t>
+  </si>
+  <si>
+    <t>ENCERRA</t>
+  </si>
+  <si>
+    <t>COMPLEMENT</t>
+  </si>
+  <si>
+    <t>ANDAMENT</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>EVERYONE</t>
   </si>
 </sst>
 </file>
@@ -551,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,11 +596,13 @@
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,436 +616,568 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+      <sortCondition ref="D1:D22"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export.xlsx
+++ b/export.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicholas.silva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5233BF-FA2E-48C0-ACFB-1710F4F8ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2031B288-6919-4769-BE0A-B25CC710DD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1860" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>EVERYONE</t>
+  </si>
+  <si>
+    <t>multipe_files</t>
+  </si>
+  <si>
+    <t>file_auth</t>
+  </si>
+  <si>
+    <t>only_file</t>
+  </si>
+  <si>
+    <t>form_cfg</t>
   </si>
 </sst>
 </file>
@@ -258,12 +270,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,13 +302,112 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -584,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,11 +721,11 @@
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,565 +745,632 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
         <v>59</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
         <v>58</v>
       </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
-      <sortCondition ref="D1:D22"/>
+  <autoFilter ref="A1:I22" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I22">
+      <sortCondition ref="F1:F22"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/export.xlsx
+++ b/export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicholas.silva\Documents\Github\8.0\CrawJUD-Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B8BEAB-8B48-48D5-846B-6D8AF328E512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B7E45-824C-42C8-937C-900C4749BFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>form_cfg</t>
+  </si>
+  <si>
+    <t>ELAW - PRAZOS</t>
+  </si>
+  <si>
+    <t>PRAZOS</t>
+  </si>
+  <si>
+    <t>Prazos Elaw</t>
   </si>
 </sst>
 </file>
@@ -639,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:I22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,6 +1302,35 @@
       </c>
       <c r="I22" s="3" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
